--- a/src/main/resources/template/excel/export/StockLeadSecondCategory.xlsx
+++ b/src/main/resources/template/excel/export/StockLeadSecondCategory.xlsx
@@ -48,7 +48,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="D3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="E3")</t>
         </r>
       </text>
     </comment>
@@ -572,7 +572,7 @@
   <dimension ref="A1:DZ101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/StockLeadSecondCategory.xlsx
+++ b/src/main/resources/template/excel/export/StockLeadSecondCategory.xlsx
@@ -106,15 +106,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(C3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(D3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(E3+0)]</t>
+    <t>$[SUMPRODUCT(C3:C3:C3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(D3:D3:D3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(E3:E3:E3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +572,7 @@
   <dimension ref="A1:DZ101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
